--- a/ConceptMap-R5-Patient-elements-for-R4-Patient.xlsx
+++ b/ConceptMap-R5-Patient-elements-for-R4-Patient.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="123">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:33.860121-06:00</t>
+    <t>2026-02-09T22:05:44.1120546-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -346,9 +346,6 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/StructureDefinition/Patient#Patient.generalPractitioner</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Patient#Patient.careProvider</t>
   </si>
   <si>
     <t>Patient.managingOrganization</t>
@@ -641,7 +638,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1058,68 +1055,55 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E32" s="2"/>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E33" s="2"/>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E34" s="2"/>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E35" s="2"/>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="B36" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="C36" s="2"/>
-      <c r="D36" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="E36" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/ConceptMap-R5-Patient-elements-for-R4-Patient.xlsx
+++ b/ConceptMap-R5-Patient-elements-for-R4-Patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:44.1120546-06:00</t>
+    <t>2026-02-17T14:42:27.4525268-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
